--- a/excel_test/excel_with_pass_unlock.xlsx
+++ b/excel_test/excel_with_pass_unlock.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,9 +16,215 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="36">
   <si>
     <t>with_pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類1</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類2</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B1A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B1B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B1C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nameA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nameB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nameC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nameD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2B1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2A1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2C1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2C2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容1</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容2</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容3</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容4</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容5</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容6</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容7</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容8</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容9</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容10</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容11</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容12</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容13</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容14</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容15</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -65,11 +271,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -391,12 +600,882 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2">
+        <v>44581</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="2">
+        <v>44582</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="2">
+        <v>44583</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="2">
+        <v>44584</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="2">
+        <v>44585</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="2">
+        <v>44586</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="2">
+        <v>44587</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2">
+        <v>44588</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2">
+        <v>44589</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2">
+        <v>44590</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2">
+        <v>44591</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2">
+        <v>44592</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2">
+        <v>44593</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2">
+        <v>44594</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2">
+        <v>44595</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2">
+        <v>44595</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2">
+        <v>44596</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2">
+        <v>44596</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2">
+        <v>44597</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2">
+        <v>44598</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2">
+        <v>44599</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2">
+        <v>44600</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2">
+        <v>44601</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2">
+        <v>44602</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2">
+        <v>44603</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2">
+        <v>44603</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2">
+        <v>44604</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="2">
+        <v>44605</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="2">
+        <v>44606</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="2">
+        <v>44606</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="2">
+        <v>44607</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="2">
+        <v>44608</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="2">
+        <v>44609</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="2">
+        <v>44609</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="2">
+        <v>44610</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="2">
+        <v>44611</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="2">
+        <v>44612</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="2">
+        <v>44613</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
